--- a/ric-register (06_02_2020).xlsx
+++ b/ric-register (06_02_2020).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>When the team is made aware of unfullfilled roles, evaluate the issue and prioritise it with other tasks and allocate somebody onto the role depending on the tasks they are doing and the role they currently perform.</t>
+  </si>
+  <si>
+    <t>Alternative servers might not be liked by Edinburgh Napier University. Causing the team to have to transfer the data onto a server approved by the faculty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm with the faculty which server is prefered to be used. </t>
+  </si>
+  <si>
+    <t>Tolu, Jon</t>
+  </si>
+  <si>
+    <t>Security risks to the server and github repository</t>
+  </si>
+  <si>
+    <t>All team members to follow standard security procedures with their password protection.</t>
   </si>
 </sst>
 </file>
@@ -649,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +744,9 @@
       <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8">
+        <v>43864</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1511,16 +1528,67 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="9" t="str">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8">
+        <v>43866</v>
+      </c>
+      <c r="E28" s="7">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="9" t="str">
+        <v>50</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="8">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8">
+        <v>43866</v>
+      </c>
+      <c r="E29" s="7">
+        <v>200</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="8">
+        <v>43866</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
